--- a/NSOT/golden_states/R1.xlsx
+++ b/NSOT/golden_states/R1.xlsx
@@ -699,7 +699,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>172.20.20.10/24</t>
+          <t>172.20.20.5/24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>192.168.0.4</t>
+          <t>192.168.0.3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1122,22 +1122,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FULL/DR</t>
+          <t>FULL/BDR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.0.101.4</t>
+          <t>192.168.0.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ethernet2.100</t>
+          <t>Ethernet2.50</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>192.168.0.3</t>
+          <t>10.0.10.2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1211,24 +1211,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>192.168.0.3</t>
+          <t>10.0.101.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ethernet2.50</t>
+          <t>Ethernet2.100</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>192.168.0.2</t>
+          <t>192.168.0.4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FULL/BDR</t>
+          <t>FULL/DR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>192.168.0.2</t>
+          <t>10.0.101.4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ethernet2.50</t>
+          <t>Ethernet2.100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>192.168.0.2</t>
+          <t>192.168.0.3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1290,29 +1290,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FULL/DR</t>
+          <t>FULL/BDR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10.0.10.2</t>
+          <t>10.0.101.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ethernet1.10</t>
+          <t>Ethernet2.100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>192.168.0.2</t>
+          <t>10.0.10.2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1332,29 +1332,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FULL/DR</t>
+          <t>FULL/BDR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:00:35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.0.20.2</t>
+          <t>10.0.100.4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ethernet1.20</t>
+          <t>Ethernet1.100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>192.168.0.2</t>
+          <t>10.0.10.2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1374,22 +1374,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FULL/DR</t>
+          <t>FULL/BDR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10.0.100.4</t>
+          <t>10.0.20.2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Ethernet1.100</t>
+          <t>Ethernet1.20</t>
         </is>
       </c>
     </row>
